--- a/planilhas_PDA.xlsx
+++ b/planilhas_PDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F306384-2252-4D47-8827-7234BCD66BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7392011-B3A4-4BC0-9EFC-B1C8D813BA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="PRODUTOS - AULA 1" sheetId="1" r:id="rId1"/>
     <sheet name="SALDO - AULA 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -351,26 +351,6 @@
   <dxfs count="9">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1" tint="0.24994659260841701"/>
       </font>
       <fill>
@@ -403,6 +383,26 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -720,14 +720,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="11" max="11" width="10.88671875" customWidth="1"/>
@@ -812,50 +813,50 @@
         <v>5</v>
       </c>
       <c r="B3" s="14">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C3" s="8">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="D3" s="8">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="8">
         <f>((B3+C3+D3)/3)/25</f>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I3" s="2">
         <f>E3*H3</f>
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M3" s="2">
         <f>I3+L3</f>
-        <v>70</v>
+        <v>256</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P3" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="2" t="str">
         <f>IF(P3&gt;I3,"NÃO COMPRAR","COMPRAR")</f>
-        <v>NÃO COMPRAR</v>
+        <v>COMPRAR</v>
       </c>
       <c r="S3" s="13"/>
     </row>
@@ -1044,7 +1045,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1336,20 +1337,20 @@
         <v>0</v>
       </c>
       <c r="D14" s="11">
-        <f>C15</f>
+        <f>B15</f>
+        <v>35000</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" ref="E14:G14" si="3">C15</f>
         <v>-15000</v>
       </c>
-      <c r="E14" s="11">
-        <f>D15</f>
-        <v>20000</v>
-      </c>
       <c r="F14" s="11">
-        <f>E15</f>
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>70000</v>
       </c>
       <c r="G14" s="11">
-        <f>F15</f>
-        <v>40000</v>
+        <f t="shared" si="3"/>
+        <v>-30000</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1361,24 +1362,24 @@
         <v>35000</v>
       </c>
       <c r="C15" s="11">
-        <f t="shared" ref="C15:G15" si="3">C14+C13</f>
+        <f t="shared" ref="C15:G15" si="4">C14+C13</f>
         <v>-15000</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="3"/>
-        <v>20000</v>
+        <f t="shared" si="4"/>
+        <v>70000</v>
       </c>
       <c r="E15" s="11">
-        <f t="shared" si="3"/>
-        <v>5000</v>
+        <f t="shared" si="4"/>
+        <v>-30000</v>
       </c>
       <c r="F15" s="11">
-        <f t="shared" si="3"/>
-        <v>40000</v>
+        <f t="shared" si="4"/>
+        <v>105000</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" si="3"/>
-        <v>25000</v>
+        <f t="shared" si="4"/>
+        <v>-45000</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1394,43 +1395,43 @@
         <v>-15000</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" ref="D16:G16" si="4">D15</f>
-        <v>20000</v>
+        <f t="shared" ref="D16:G16" si="5">D15</f>
+        <v>70000</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" si="4"/>
-        <v>5000</v>
+        <f t="shared" si="5"/>
+        <v>-30000</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="4"/>
-        <v>40000</v>
+        <f t="shared" si="5"/>
+        <v>105000</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="4"/>
-        <v>25000</v>
+        <f t="shared" si="5"/>
+        <v>-45000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B13:G16">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:G14">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
